--- a/04_Exercises/Training_QC_niftis/Demographics_CamCAN_QC_test_template.xlsx
+++ b/04_Exercises/Training_QC_niftis/Demographics_CamCAN_QC_test_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kayti/Library/Containers/com.microsoft.Excel/Data/Desktop/Projects/Analysis-Docs/04_Exercises/Training_DKI_QC_niftis/Protocols/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kayti/Library/Containers/com.microsoft.Excel/Data/Desktop/Projects/Analysis-Docs/04_Exercises/Training_QC_niftis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20151B2B-25DA-2C4D-AE73-F67461F4D69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CC2812-9120-234F-9F22-1117DF7E8437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2480" windowWidth="49180" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2480" windowWidth="28860" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Completed MRI" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="690">
   <si>
     <t>x</t>
   </si>
@@ -2099,22 +2099,7 @@
     <t>sub-CC120276'</t>
   </si>
   <si>
-    <t>sub-CC510256'</t>
-  </si>
-  <si>
-    <t>sub-CC520391'</t>
-  </si>
-  <si>
-    <t>sub-CC510434'</t>
-  </si>
-  <si>
     <t>T2w (QC)</t>
-  </si>
-  <si>
-    <t>sub-CC510415'</t>
-  </si>
-  <si>
-    <t>sub-CC520002'</t>
   </si>
   <si>
     <t>sub-CC110037'</t>
@@ -2213,7 +2198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2356,22 +2341,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2490,30 +2464,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2850,13 +2800,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DX22"/>
+  <dimension ref="A1:DX17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A17" activeCellId="1" sqref="A8:XFD16 A17:XFD17"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2886,35 +2836,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.2">
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="56" t="s">
         <v>664</v>
       </c>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="72" t="s">
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="73"/>
-      <c r="M1" s="65" t="s">
+      <c r="L1" s="65"/>
+      <c r="M1" s="57" t="s">
         <v>685</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="70" t="s">
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="62" t="s">
         <v>666</v>
       </c>
-      <c r="U1" s="71"/>
-      <c r="V1" s="67" t="s">
+      <c r="U1" s="63"/>
+      <c r="V1" s="59" t="s">
         <v>668</v>
       </c>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="69"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="61"/>
     </row>
     <row r="2" spans="1:128" s="10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -2939,10 +2889,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>665</v>
@@ -2999,7 +2949,7 @@
     <row r="3" spans="1:128" s="9" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="42" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C3">
         <v>18</v>
@@ -3037,7 +2987,7 @@
       <c r="Z3" s="24"/>
     </row>
     <row r="4" spans="1:128" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="41" t="s">
         <v>12</v>
       </c>
@@ -3409,7 +3359,7 @@
       <c r="DW6" s="2"/>
       <c r="DX6" s="2"/>
     </row>
-    <row r="7" spans="1:128" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:128" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="41" t="s">
         <v>49</v>
@@ -3450,217 +3400,92 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
     </row>
-    <row r="8" spans="1:128" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="42" t="s">
-        <v>687</v>
-      </c>
-      <c r="C8">
-        <v>63</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="E8" t="s">
-        <v>672</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="33"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="23"/>
+    <row r="8" spans="1:128" s="48" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="42" t="s">
-        <v>691</v>
-      </c>
-      <c r="C9">
-        <v>64</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9" t="s">
-        <v>673</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>0</v>
-      </c>
+      <c r="B9" s="42"/>
       <c r="T9" s="23"/>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="42" t="s">
-        <v>692</v>
-      </c>
-      <c r="C10">
-        <v>64</v>
-      </c>
-      <c r="D10">
-        <v>88</v>
-      </c>
-      <c r="E10" t="s">
-        <v>673</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
+      <c r="B10" s="41"/>
       <c r="T10" s="23"/>
     </row>
     <row r="11" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="42" t="s">
-        <v>688</v>
-      </c>
-      <c r="C11">
-        <v>64</v>
-      </c>
-      <c r="D11">
-        <v>89</v>
-      </c>
-      <c r="E11" t="s">
-        <v>673</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
+      <c r="B11" s="41"/>
       <c r="T11" s="23"/>
     </row>
-    <row r="12" spans="1:128" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="42" t="s">
-        <v>689</v>
-      </c>
-      <c r="C12">
-        <v>65</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>673</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-    </row>
-    <row r="13" spans="1:128" s="56" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
+      <c r="B12" s="41"/>
+      <c r="T12" s="23"/>
+    </row>
+    <row r="13" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="41"/>
+      <c r="I13" s="33"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="23"/>
     </row>
     <row r="14" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="42"/>
+      <c r="B14" s="41"/>
       <c r="T14" s="23"/>
     </row>
     <row r="15" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="41"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
       <c r="T15" s="23"/>
     </row>
     <row r="16" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="41"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="41"/>
+      <c r="I17" s="45"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
       <c r="T17" s="23"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="41"/>
-      <c r="I18" s="33"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="23"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="41"/>
-      <c r="T19" s="23"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="41"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="23"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="41"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="23"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="41"/>
-      <c r="I22" s="45"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="23"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Y644">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Y639">
     <sortCondition ref="C1"/>
   </sortState>
   <mergeCells count="5">
